--- a/medicine/Enfance/Henri_Galeron/Henri_Galeron.xlsx
+++ b/medicine/Enfance/Henri_Galeron/Henri_Galeron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Galeron (né le 4 décembre 1939 à Saint-Étienne-du-Grès dans les Bouches-du-Rhône) est un illustrateur français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Galeron est formé à l'École des beaux-arts de Marseille dont il sort diplômé en 1961.
 Entré aux éditions Nathan en 1967, il y assume la direction artistique des jeux éducatifs de 1972 à 1974. Il devient ensuite illustrateur indépendant et publie Le Kidnapping de la cafetière, à New York chez l'éditeur Harlin Quist qui sera suivi de nombreux autres. Prix Honoré en 1985, il se voit à cette occasion dédier une monographie par François Vié, sous le titre Henri Galeron, une image à l'envers, une image à l'endroit, chez Gallimard.
@@ -548,19 +562,92 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Chez Grasset Jeunesse
-Moa, Toa, Loa et leur cousin Tagada, Guy Monréal (1973)
-La Dompteuse et le musicien, Charles Charras (1973)
-Chez Harlin Quist
-Le Kidnapping de la cafetière, Kaye Saari (1974)
+          <t>Chez Grasset Jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Moa, Toa, Loa et leur cousin Tagada, Guy Monréal (1973)
+La Dompteuse et le musicien, Charles Charras (1973)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chez Harlin Quist</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Kidnapping de la cafetière, Kaye Saari (1974)
 Ça n'a pas d'importance, Alain Diot (1975)
 Moka, Mollie, Max et moi, Albert Cullum (1976)
 Quand, Henri Galeron (1977)
 Nestor, Quatre chevaux dans une boîte, David McNeil (1977)
 L'Oubli de noé, John Goldthwaite (1978)
-L'Ile du droit à la caresse, Daniel Mermet (1998)
-Chez Gallimard, dans la collection « Mes premières découvertes »
-J'observe le cinéma, avec Claude Delafosse et Stéphane Mattern (1990)
+L'Ile du droit à la caresse, Daniel Mermet (1998)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chez Gallimard, dans la collection « Mes premières découvertes »</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>J'observe le cinéma, avec Claude Delafosse et Stéphane Mattern (1990)
 Le Dinosaure (1991)
 Plus ou moins (1992)
 Le Vêtement (1993)
@@ -569,9 +656,43 @@
 Le Chien (1998)
 Le Chat (1998)
 La Girafe (2004)
-Le Perroquet (2006)
-Chez Gallimard, dans d'autres collections
-Voyage au pays des arbres, Jean-Marie Gustave Le Clézio, 1978
+Le Perroquet (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chez Gallimard, dans d'autres collections</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Voyage au pays des arbres, Jean-Marie Gustave Le Clézio, 1978
 La Pêche à la baleine, Jacques Prévert, 1979
 Histoires Naturelles, Jules Renard, Okapi/Gallimard, 1979
 Le Doigt magique, Roald Dahl, 1979
@@ -591,9 +712,43 @@
 L'Aventure des sept horloges, Conan Doyle, 2007
 Sept Contes, Michel Tournier, Gallimard Folio Junior, 2008
 Poucette, Hans Christian Andersen, Gallimard Jeunesse 2008 - Gallimard Folio Benjamin, 2009
-Le Loup et les 7 Cabris - Les Musiciens de la ville de Brême, Jacob et Wilhelm Grimm, Gallimard Jeunesse, 2009
-Chez Motus
-Nasr Eddin, le Hodja raconté par Jean-Louis Maunoury 1996
+Le Loup et les 7 Cabris - Les Musiciens de la ville de Brême, Jacob et Wilhelm Grimm, Gallimard Jeunesse, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chez Motus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nasr Eddin, le Hodja raconté par Jean-Louis Maunoury 1996
 Le Rap des rats, Michel Besnier 1999
 Les Enfants de la lune et du soleil, François David 2001
 Poèmes sans queue ni tête d'Edward Lear et François David 2004
@@ -607,9 +762,43 @@
 Papillons et Mamillons, François David, 2015
 Le bout du bout, François David, 2018
 La cuisine au beurre noir, Michel Besnier, 2019
-Nom d'un chien, François David, 2020
-Chez d'autres éditeurs
-Voluminis, Michel Chaillou, CPLJ, 1993
+Nom d'un chien, François David, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chez d'autres éditeurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Voluminis, Michel Chaillou, CPLJ, 1993
 Une petite flamme dans la nuit, François David, Bayard Éditions Jeunesse, 1996
 Comptines pour donner sa langue au chat, François David, Acte Sud, 1998
 Illustration de couverture de Un rival pour l'étalon noir, Walter Farley, Éditions Hachette Livre - Bibliothèque verte, 2000
@@ -626,43 +815,82 @@
 ABCD, Henri Galeron, Les Grandes Personnes, 2017
 La vie cachée de la forêt, M.A. Gaudrat, Les Arènes, 2019
 Virelangues et Trompe-oreilles, Henri Galeron, Les Grandes Personnes, 2021
-Jean de la Fontaine-Fables, Les Grandes Personnes, 2021
-Livres / disques
-Émilie Jolie, Philippe Chatel, RCA 1979 - Sony Music 2009
+Jean de la Fontaine-Fables, Les Grandes Personnes, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Livres / disques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Émilie Jolie, Philippe Chatel, RCA 1979 - Sony Music 2009
 Berceuses du monde entier (avec tableau en relief) Le Chant du Monde, 1983
 Histoires à musique, Steve Waring, Le Chant du Monde, 1994
 Fais-voir le son, Steve Waring, Le Chant du Monde, 1995</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Henri_Galeron</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Henri_Galeron</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Autres travaux d'illustration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Affiches de cinéma et de théâtre
-Le Cri (Antonioni), les films Galatée, 1979
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Affiches de cinéma et de théâtre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Cri (Antonioni), les films Galatée, 1979
 Old boy friends (Joan Tewkesbury), les films Galatée, 1979
 Comme chez nous (Marta Meszaros) Swann-Diffusion, 1979
 Pierre Arditi / Tailleur pour dames (Feydeau / Poiret) Théâtre des Bouffes Parisiens / Paris, 1984
@@ -671,9 +899,43 @@
 Ballet de Lausanne (Maurice Béjart), Palais des Congrès, 1988
 Le Cirque de Moscou sur glace, Paris, 1990 / Bordeaux, 1991
 Belmondo / Tailleur pour dames (Feydeau / Poiret) Théâtre de Paris - acrylique, 1993
-La nuit des musiciens Paris - Crapule Productions, 1993
-Timbres-poste (pour la Poste française)
-Le Voyage d’une lettre, série de six timbres, 1997
+La nuit des musiciens Paris - Crapule Productions, 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Autres travaux d'illustration</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Timbres-poste (pour la Poste française)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Voyage d’une lettre, série de six timbres, 1997
 Meilleurs vœux, 1998
 La Lettre au fil du temps, série de six timbres, 1998
 Fêtes de fin d’année, Croix rouge française, 2000
@@ -686,34 +948,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Henri_Galeron</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Henri_Galeron</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Expositions personnelles
-Librairie L’Échappée Belle, Paris, 1976
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Expositions personnelles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Librairie L’Échappée Belle, Paris, 1976
 Librairie-Galerie L’Envers du Miroir, Nantes, 1982
 Agence Bélier Conseil, Neuilly-sur-Seine, 1982
 Mecanorma Graphic Center, Paris, 1985
@@ -739,9 +1006,43 @@
 Festival des Illustrateurs, Salon d’honneur de l’Hôtel de Ville de Moulins, 2011
 Focus sur Henri Galeron, Beaugency, 2015
 Illustrations originales, Bibliothèque du Parc Ronsard, Vendôme, 2015
-ABCD, Les libraires associés, Paris, 2017
-Expositions collectives
-L’Enfant et les images, Musée des Arts Décoratifs, Paris, 1973-1974
+ABCD, Les libraires associés, Paris, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Galeron</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Expositions collectives</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>L’Enfant et les images, Musée des Arts Décoratifs, Paris, 1973-1974
 Encore les Livres d’Harlin Quist, MAFIA, Moulin de la Galette, Paris, 1974
 European Illustration, Design Center, Londres, 1976
 Galerie Harlin Quist, Paris, 1977
